--- a/src/Algoritmos.xlsx
+++ b/src/Algoritmos.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Documents\Portfolio\CriptoSimulacion\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004F9D39-4615-4674-A9BB-CD38896AACEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E82FB1D-1197-4D5D-9BED-B6AA3CFDF442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="17670" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8040" yWindow="9645" windowWidth="17670" windowHeight="13080" xr2:uid="{11386F2F-2633-4999-AA46-E7F948CC8C4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -32,7 +34,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Algoritmo</t>
+  </si>
+  <si>
+    <t>Tiempo de bloque</t>
+  </si>
+  <si>
+    <t>Recompensa Bloque</t>
+  </si>
+  <si>
+    <t>Hash rate de la red</t>
+  </si>
+  <si>
+    <t>Precio moneda</t>
+  </si>
   <si>
     <t>Zhash</t>
   </si>
@@ -41,24 +58,6 @@
   </si>
   <si>
     <t>CryptoNightGPU</t>
-  </si>
-  <si>
-    <t>Algoritmo</t>
-  </si>
-  <si>
-    <t>Tiempo de bloque</t>
-  </si>
-  <si>
-    <t>Bloque Diarios</t>
-  </si>
-  <si>
-    <t>Recompensa Bloque</t>
-  </si>
-  <si>
-    <t>Hash rate de la red</t>
-  </si>
-  <si>
-    <t>Precio moneda</t>
   </si>
   <si>
     <t>RandomX</t>
@@ -74,21 +73,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
@@ -115,15 +101,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,184 +416,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264A102D-6E7B-4F51-832A-DD336CA3CA04}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
       </c>
       <c r="B2">
         <v>9.2799999999999994</v>
       </c>
       <c r="C2">
-        <v>152.11267605633805</v>
+        <v>6.25</v>
       </c>
       <c r="D2">
-        <v>6.25</v>
-      </c>
-      <c r="E2" s="4">
         <v>2510000</v>
       </c>
-      <c r="F2">
+      <c r="E2">
         <v>91.92</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0.13450000000000001</v>
       </c>
       <c r="C3">
-        <v>6423.7918215613381</v>
+        <v>3.79</v>
       </c>
       <c r="D3">
-        <v>3.79</v>
-      </c>
-      <c r="E3" s="4">
         <v>511980000</v>
       </c>
-      <c r="F3">
+      <c r="E3">
         <v>2312.35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>1.57</v>
       </c>
       <c r="C4">
-        <v>738.46153846153834</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4">
         <v>1500000</v>
       </c>
-      <c r="F4">
+      <c r="E4">
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>121</v>
       </c>
       <c r="C5">
-        <v>11.900826446280991</v>
+        <v>1.01</v>
       </c>
       <c r="D5">
-        <v>1.01</v>
-      </c>
-      <c r="E5" s="4">
         <v>2630000000</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E5">
         <v>274.82</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1.44</v>
       </c>
       <c r="C6">
-        <v>830.76923076923083</v>
+        <v>67.5</v>
       </c>
       <c r="D6">
-        <v>67.5</v>
-      </c>
-      <c r="E6" s="4">
         <v>25620000000000</v>
       </c>
-      <c r="F6">
+      <c r="E6">
         <v>12.91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0.1358</v>
       </c>
       <c r="C7">
-        <v>6362.297496318115</v>
+        <v>3.1</v>
       </c>
       <c r="D7">
-        <v>3.1</v>
-      </c>
-      <c r="E7" s="4">
         <v>26290000000000</v>
       </c>
-      <c r="F7">
+      <c r="E7">
         <v>68.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F801F24-CD01-4E87-AAE7-7D2BD2C1212E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>